--- a/results/supplementaryTables/SupplementaryTable3_CR_result.xlsx
+++ b/results/supplementaryTables/SupplementaryTable3_CR_result.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cong/Documents/somaticMutation/tables/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\15000\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3796CCCA-A67F-0C46-AA98-4845D5C0C552}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4B1D177F-53F1-44EB-857E-4EC7301C477A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28880" yWindow="6640" windowWidth="27100" windowHeight="10420" xr2:uid="{0FB8BB4D-AB22-42F5-A0DA-D988166A3F2A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{0FB8BB4D-AB22-42F5-A0DA-D988166A3F2A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="31">
   <si>
     <t>Correlation in Train set</t>
   </si>
@@ -118,15 +119,25 @@
   </si>
   <si>
     <t>SNV number</t>
+  </si>
+  <si>
+    <t>number of regions</t>
+  </si>
+  <si>
+    <t>whole genome coverage</t>
+  </si>
+  <si>
+    <t>total region length</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.00000"/>
+    <numFmt numFmtId="165" formatCode="0.00000E+00"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -335,7 +346,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -358,9 +369,6 @@
     <xf numFmtId="41" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -408,6 +416,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -723,56 +749,66 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8654442E-8BBB-440B-A8FB-CF91F00E1913}">
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:N15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="25.6640625" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="25.6328125" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16384" width="25.6640625" style="2"/>
+    <col min="1" max="12" width="25.6328125" style="2"/>
+    <col min="13" max="13" width="25.6328125" style="29"/>
+    <col min="14" max="16384" width="25.6328125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:14" s="3" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="H1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="I1" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="J1" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="K1" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="L1" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="L1" s="8"/>
+      <c r="M1" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="N1" s="13" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="15" t="s">
+    <row r="2" spans="1:14" s="3" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="14" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -788,27 +824,37 @@
         <v>10400</v>
       </c>
       <c r="F2" s="24">
+        <v>65695</v>
+      </c>
+      <c r="G2" s="23">
         <v>0.94421800000000022</v>
       </c>
-      <c r="G2" s="24">
+      <c r="H2" s="23">
         <v>0.91031399999999996</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="24">
+      <c r="J2" s="23">
         <v>0.93220999999999998</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="K2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="16" t="s">
+      <c r="L2" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="8"/>
+      <c r="M2" s="27">
+        <f>PRODUCT(D2,F2)</f>
+        <v>1199295072.5</v>
+      </c>
+      <c r="N2" s="3">
+        <f>M2/3200000000</f>
+        <v>0.37477971015625</v>
+      </c>
     </row>
-    <row r="3" spans="1:12" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="17" t="s">
+    <row r="3" spans="1:14" s="3" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="16" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -823,25 +869,35 @@
       <c r="E3" s="7">
         <v>6400</v>
       </c>
-      <c r="F3" s="24">
+      <c r="F3" s="25">
+        <v>178750</v>
+      </c>
+      <c r="G3" s="23">
         <v>0.92708500000000016</v>
       </c>
-      <c r="G3" s="24">
+      <c r="H3" s="23">
         <v>0.8796719999999999</v>
       </c>
-      <c r="I3" s="24">
+      <c r="J3" s="23">
         <v>0.87190999999999996</v>
       </c>
-      <c r="J3" s="7">
+      <c r="K3" s="7">
         <v>6248</v>
       </c>
-      <c r="K3" s="18">
+      <c r="L3" s="17">
         <v>0.89363999999999999</v>
       </c>
-      <c r="L3" s="8"/>
+      <c r="M3" s="27">
+        <f t="shared" ref="M3:M14" si="0">PRODUCT(D3,F3)</f>
+        <v>2018209050</v>
+      </c>
+      <c r="N3" s="3">
+        <f t="shared" ref="N3:N14" si="1">M3/3200000000</f>
+        <v>0.63069032812500003</v>
+      </c>
     </row>
-    <row r="4" spans="1:12" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A4" s="15" t="s">
+    <row r="4" spans="1:14" s="3" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="14" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -857,27 +913,37 @@
         <v>12400</v>
       </c>
       <c r="F4" s="24">
+        <v>74686</v>
+      </c>
+      <c r="G4" s="23">
         <v>0.95517399999999986</v>
       </c>
-      <c r="G4" s="24">
+      <c r="H4" s="23">
         <v>0.92472900000000013</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="24">
+      <c r="J4" s="23">
         <v>0.94388000000000005</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="K4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="K4" s="16" t="s">
+      <c r="L4" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="8"/>
+      <c r="M4" s="27">
+        <f t="shared" si="0"/>
+        <v>1758929986</v>
+      </c>
+      <c r="N4" s="3">
+        <f t="shared" si="1"/>
+        <v>0.54966562062500002</v>
+      </c>
     </row>
-    <row r="5" spans="1:12" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A5" s="17" t="s">
+    <row r="5" spans="1:14" s="3" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="16" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -892,25 +958,35 @@
       <c r="E5" s="7">
         <v>6000</v>
       </c>
-      <c r="F5" s="24">
+      <c r="F5" s="25">
+        <v>124324</v>
+      </c>
+      <c r="G5" s="23">
         <v>0.89810799999999991</v>
       </c>
-      <c r="G5" s="24">
+      <c r="H5" s="23">
         <v>0.8203609999999999</v>
       </c>
-      <c r="I5" s="24">
+      <c r="J5" s="23">
         <v>0.76146000000000003</v>
       </c>
-      <c r="J5" s="7">
+      <c r="K5" s="7">
         <v>10025</v>
       </c>
-      <c r="K5" s="24">
+      <c r="L5" s="23">
         <v>0.83816999999999997</v>
       </c>
-      <c r="L5" s="8"/>
+      <c r="M5" s="27">
+        <f t="shared" si="0"/>
+        <v>2438958394.2399998</v>
+      </c>
+      <c r="N5" s="3">
+        <f t="shared" si="1"/>
+        <v>0.76217449819999994</v>
+      </c>
     </row>
-    <row r="6" spans="1:12" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A6" s="15" t="s">
+    <row r="6" spans="1:14" s="3" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="14" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -926,27 +1002,37 @@
         <v>8800</v>
       </c>
       <c r="F6" s="24">
+        <v>109288</v>
+      </c>
+      <c r="G6" s="23">
         <v>0.94706800000000002</v>
       </c>
-      <c r="G6" s="24">
+      <c r="H6" s="23">
         <v>0.90704700000000005</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="I6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I6" s="24">
+      <c r="J6" s="23">
         <v>0.92032000000000003</v>
       </c>
-      <c r="J6" s="6" t="s">
+      <c r="K6" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="K6" s="16" t="s">
+      <c r="L6" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="L6" s="8"/>
+      <c r="M6" s="27">
+        <f t="shared" si="0"/>
+        <v>2190677960</v>
+      </c>
+      <c r="N6" s="3">
+        <f t="shared" si="1"/>
+        <v>0.6845868625</v>
+      </c>
     </row>
-    <row r="7" spans="1:12" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A7" s="17" t="s">
+    <row r="7" spans="1:14" s="3" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="16" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="5" t="s">
@@ -961,25 +1047,35 @@
       <c r="E7" s="7">
         <v>3800</v>
       </c>
-      <c r="F7" s="24">
+      <c r="F7" s="25">
+        <v>296940</v>
+      </c>
+      <c r="G7" s="23">
         <v>0.79153600000000002</v>
       </c>
-      <c r="G7" s="24">
+      <c r="H7" s="23">
         <v>0.66412600000000011</v>
       </c>
-      <c r="I7" s="24">
+      <c r="J7" s="23">
         <v>0.54613</v>
       </c>
-      <c r="J7" s="7">
+      <c r="K7" s="7">
         <v>17995</v>
       </c>
-      <c r="K7" s="24">
+      <c r="L7" s="23">
         <v>0.74836999999999998</v>
       </c>
-      <c r="L7" s="8"/>
+      <c r="M7" s="27">
+        <f t="shared" si="0"/>
+        <v>2609417262.4799995</v>
+      </c>
+      <c r="N7" s="3">
+        <f t="shared" si="1"/>
+        <v>0.81544289452499985</v>
+      </c>
     </row>
-    <row r="8" spans="1:12" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A8" s="15" t="s">
+    <row r="8" spans="1:14" s="3" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="14" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -995,24 +1091,34 @@
         <v>7600</v>
       </c>
       <c r="F8" s="24">
+        <v>119081</v>
+      </c>
+      <c r="G8" s="23">
         <v>0.90787400000000018</v>
       </c>
-      <c r="G8" s="24">
+      <c r="H8" s="23">
         <v>0.813415</v>
       </c>
-      <c r="I8" s="24">
+      <c r="J8" s="23">
         <v>0.79035</v>
       </c>
-      <c r="J8" s="6">
+      <c r="K8" s="6">
         <v>5354</v>
       </c>
-      <c r="K8" s="24">
+      <c r="L8" s="23">
         <v>0.81249000000000005</v>
       </c>
-      <c r="L8" s="8"/>
+      <c r="M8" s="27">
+        <f t="shared" si="0"/>
+        <v>2235507613</v>
+      </c>
+      <c r="N8" s="3">
+        <f t="shared" si="1"/>
+        <v>0.69859612906250002</v>
+      </c>
     </row>
-    <row r="9" spans="1:12" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A9" s="17" t="s">
+    <row r="9" spans="1:14" s="3" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="16" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="5" t="s">
@@ -1027,25 +1133,35 @@
       <c r="E9" s="7">
         <v>13600</v>
       </c>
-      <c r="F9" s="24">
+      <c r="F9" s="25">
+        <v>62085</v>
+      </c>
+      <c r="G9" s="23">
         <v>0.94321600000000017</v>
       </c>
-      <c r="G9" s="24">
+      <c r="H9" s="23">
         <v>0.89852200000000004</v>
       </c>
-      <c r="I9" s="24">
+      <c r="J9" s="23">
         <v>0.90963000000000005</v>
       </c>
-      <c r="J9" s="7">
+      <c r="K9" s="7">
         <v>1673</v>
       </c>
-      <c r="K9" s="24">
+      <c r="L9" s="23">
         <v>0.91113</v>
       </c>
-      <c r="L9" s="8"/>
+      <c r="M9" s="27">
+        <f t="shared" si="0"/>
+        <v>1822318920</v>
+      </c>
+      <c r="N9" s="3">
+        <f t="shared" si="1"/>
+        <v>0.56947466250000001</v>
+      </c>
     </row>
-    <row r="10" spans="1:12" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A10" s="15" t="s">
+    <row r="10" spans="1:14" s="3" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="14" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="4" t="s">
@@ -1061,24 +1177,34 @@
         <v>9600</v>
       </c>
       <c r="F10" s="24">
+        <v>109109</v>
+      </c>
+      <c r="G10" s="23">
         <v>0.93937599999999999</v>
       </c>
-      <c r="G10" s="24">
+      <c r="H10" s="23">
         <v>0.89833999999999992</v>
       </c>
-      <c r="I10" s="24">
+      <c r="J10" s="23">
         <v>0.89556000000000002</v>
       </c>
-      <c r="J10" s="6">
+      <c r="K10" s="6">
         <v>4431</v>
       </c>
-      <c r="K10" s="24">
+      <c r="L10" s="23">
         <v>0.90590999999999999</v>
       </c>
-      <c r="L10" s="8"/>
+      <c r="M10" s="27">
+        <f t="shared" si="0"/>
+        <v>2202365165</v>
+      </c>
+      <c r="N10" s="3">
+        <f t="shared" si="1"/>
+        <v>0.68823911406250005</v>
+      </c>
     </row>
-    <row r="11" spans="1:12" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A11" s="17" t="s">
+    <row r="11" spans="1:14" s="3" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="16" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="5" t="s">
@@ -1093,25 +1219,35 @@
       <c r="E11" s="7">
         <v>6000</v>
       </c>
-      <c r="F11" s="24">
+      <c r="F11" s="25">
+        <v>177457</v>
+      </c>
+      <c r="G11" s="23">
         <v>0.89634800000000003</v>
       </c>
-      <c r="G11" s="24">
+      <c r="H11" s="23">
         <v>0.82565300000000019</v>
       </c>
-      <c r="I11" s="24">
+      <c r="J11" s="23">
         <v>0.78615999999999997</v>
       </c>
-      <c r="J11" s="7">
+      <c r="K11" s="7">
         <v>9142</v>
       </c>
-      <c r="K11" s="24">
+      <c r="L11" s="23">
         <v>0.85248999999999997</v>
       </c>
-      <c r="L11" s="8"/>
+      <c r="M11" s="27">
+        <f t="shared" si="0"/>
+        <v>2467993874.9200001</v>
+      </c>
+      <c r="N11" s="3">
+        <f t="shared" si="1"/>
+        <v>0.77124808591250005</v>
+      </c>
     </row>
-    <row r="12" spans="1:12" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A12" s="15" t="s">
+    <row r="12" spans="1:14" s="3" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="14" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -1127,27 +1263,37 @@
         <v>16200</v>
       </c>
       <c r="F12" s="24">
+        <v>72094</v>
+      </c>
+      <c r="G12" s="23">
         <v>0.93956099999999998</v>
       </c>
-      <c r="G12" s="24">
+      <c r="H12" s="23">
         <v>0.905864</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="I12" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I12" s="24">
+      <c r="J12" s="23">
         <v>0.92967999999999995</v>
       </c>
-      <c r="J12" s="6" t="s">
+      <c r="K12" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="K12" s="16" t="s">
+      <c r="L12" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="L12" s="8"/>
+      <c r="M12" s="27">
+        <f t="shared" si="0"/>
+        <v>1817685114.74</v>
+      </c>
+      <c r="N12" s="3">
+        <f t="shared" si="1"/>
+        <v>0.56802659835625002</v>
+      </c>
     </row>
-    <row r="13" spans="1:12" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A13" s="17" t="s">
+    <row r="13" spans="1:14" s="3" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="16" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="5" t="s">
@@ -1162,101 +1308,133 @@
       <c r="E13" s="7">
         <v>16400</v>
       </c>
-      <c r="F13" s="24">
+      <c r="F13" s="25">
+        <v>58582</v>
+      </c>
+      <c r="G13" s="23">
         <v>0.93886199999999997</v>
       </c>
-      <c r="G13" s="24">
+      <c r="H13" s="23">
         <v>0.89279999999999993</v>
       </c>
-      <c r="I13" s="24">
+      <c r="J13" s="23">
         <v>0.90795999999999999</v>
       </c>
-      <c r="J13" s="7">
+      <c r="K13" s="7">
         <v>2993</v>
       </c>
-      <c r="K13" s="24">
+      <c r="L13" s="23">
         <v>0.90151000000000003</v>
       </c>
-      <c r="L13" s="8"/>
+      <c r="M13" s="27">
+        <f t="shared" si="0"/>
+        <v>2372820559.3200002</v>
+      </c>
+      <c r="N13" s="3">
+        <f t="shared" si="1"/>
+        <v>0.74150642478750006</v>
+      </c>
     </row>
-    <row r="14" spans="1:12" s="3" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="19" t="s">
+    <row r="14" spans="1:14" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="21">
+      <c r="C14" s="20">
         <v>155192</v>
       </c>
-      <c r="D14" s="22">
+      <c r="D14" s="21">
         <v>45615.25</v>
       </c>
-      <c r="E14" s="22">
+      <c r="E14" s="21">
         <v>16800</v>
       </c>
       <c r="F14" s="24">
+        <v>40311</v>
+      </c>
+      <c r="G14" s="23">
         <v>0.95121</v>
       </c>
-      <c r="G14" s="24">
+      <c r="H14" s="23">
         <v>0.91713</v>
       </c>
-      <c r="H14" s="20" t="s">
+      <c r="I14" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="I14" s="24">
+      <c r="J14" s="23">
         <v>0.95108999999999999</v>
       </c>
-      <c r="J14" s="22" t="s">
+      <c r="K14" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="K14" s="23" t="s">
+      <c r="L14" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="L14" s="8"/>
+      <c r="M14" s="27">
+        <f t="shared" si="0"/>
+        <v>1838796342.75</v>
+      </c>
+      <c r="N14" s="3">
+        <f t="shared" si="1"/>
+        <v>0.57462385710937502</v>
+      </c>
     </row>
-    <row r="15" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="9">
-        <f>AVERAGE(C2:C14)</f>
+      <c r="C15" s="8">
+        <f t="shared" ref="C15:H15" si="2">AVERAGE(C2:C14)</f>
         <v>622048.61538461538</v>
       </c>
-      <c r="D15" s="9">
-        <f>AVERAGE(D2:D14)</f>
+      <c r="D15" s="8">
+        <f t="shared" si="2"/>
         <v>22699.800923076924</v>
       </c>
-      <c r="E15" s="9">
-        <f>AVERAGE(E2:E14)</f>
+      <c r="E15" s="8">
+        <f t="shared" si="2"/>
         <v>10307.692307692309</v>
       </c>
-      <c r="F15" s="1">
-        <f>AVERAGE(F2:F14)</f>
+      <c r="F15" s="26">
+        <f t="shared" si="2"/>
+        <v>114492.46153846153</v>
+      </c>
+      <c r="G15" s="1">
+        <f t="shared" si="2"/>
         <v>0.9215104615384615</v>
       </c>
-      <c r="G15" s="1">
-        <f>AVERAGE(G2:G14)</f>
+      <c r="H15" s="1">
+        <f t="shared" si="2"/>
         <v>0.86599792307692303</v>
       </c>
-      <c r="I15" s="1">
-        <f>AVERAGE(I2:I14)</f>
+      <c r="J15" s="1">
+        <f>AVERAGE(J2:J14)</f>
         <v>0.85741076923076909</v>
       </c>
-      <c r="J15" s="10">
-        <f>AVERAGE(J2:J14)</f>
+      <c r="K15" s="9">
+        <f>AVERAGE(K2:K14)</f>
         <v>7232.625</v>
       </c>
-      <c r="K15" s="1">
-        <f>AVERAGE(K2:K14)</f>
+      <c r="L15" s="1">
+        <f>AVERAGE(L2:L14)</f>
         <v>0.85796374999999991</v>
+      </c>
+      <c r="M15" s="28">
+        <f>AVERAGE(M2:M14)</f>
+        <v>2074844254.9961538</v>
+      </c>
+      <c r="N15" s="1">
+        <f>AVERAGE(N2:N14)</f>
+        <v>0.64838882968629796</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K14">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L14">
     <sortCondition ref="A2:A14"/>
   </sortState>
-  <conditionalFormatting sqref="F2:F14">
+  <conditionalFormatting sqref="G2:G14">
     <cfRule type="dataBar" priority="3">
       <dataBar>
         <cfvo type="min"/>
@@ -1294,7 +1472,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G14">
+  <conditionalFormatting sqref="H2:H14">
     <cfRule type="dataBar" priority="4">
       <dataBar>
         <cfvo type="min"/>
@@ -1308,7 +1486,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I14">
+  <conditionalFormatting sqref="J2:J14">
     <cfRule type="dataBar" priority="2">
       <dataBar>
         <cfvo type="min"/>
@@ -1322,7 +1500,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K14">
+  <conditionalFormatting sqref="L2:L14">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
@@ -1366,7 +1544,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F2:F14</xm:sqref>
+          <xm:sqref>G2:G14</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{A8B4878D-4AC2-4179-867B-A75EAE53543D}">
@@ -1377,7 +1555,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G2:G14</xm:sqref>
+          <xm:sqref>H2:H14</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{F29464F9-C758-44E2-8240-C9D4B7D6B5B5}">
@@ -1388,7 +1566,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>I2:I14</xm:sqref>
+          <xm:sqref>J2:J14</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{43588F84-7EE7-4344-BEFF-B2881399B0E8}">
@@ -1399,7 +1577,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>K2:K14</xm:sqref>
+          <xm:sqref>L2:L14</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
